--- a/Tipo de cambio.xlsx
+++ b/Tipo de cambio.xlsx
@@ -8,17 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\av1la\Downloads\ITESO\Simulación\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DB0672E-7355-4492-92EA-40E61B71A3A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B6EE3F7-2509-47E2-8078-BE43BFABFBCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="5" xr2:uid="{E35FDB23-2C24-4E52-8944-317D2A3CB02E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{E35FDB23-2C24-4E52-8944-317D2A3CB02E}"/>
   </bookViews>
   <sheets>
     <sheet name="DOLARPESO" sheetId="1" r:id="rId1"/>
-    <sheet name="EUROPESO" sheetId="2" r:id="rId2"/>
-    <sheet name="PESOYEN" sheetId="3" r:id="rId3"/>
-    <sheet name="RUPIAPESO" sheetId="4" r:id="rId4"/>
-    <sheet name="LIBRAPESO" sheetId="5" r:id="rId5"/>
-    <sheet name="YUANPESO" sheetId="6" r:id="rId6"/>
+    <sheet name="Hoja1" sheetId="7" r:id="rId2"/>
+    <sheet name="EUROPESO" sheetId="2" r:id="rId3"/>
+    <sheet name="PESOYEN" sheetId="3" r:id="rId4"/>
+    <sheet name="RUPIAPESO" sheetId="4" r:id="rId5"/>
+    <sheet name="LIBRAPESO" sheetId="5" r:id="rId6"/>
+    <sheet name="YUANPESO" sheetId="6" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="716" uniqueCount="104">
   <si>
     <t>01.03.2023</t>
   </si>
@@ -351,13 +352,17 @@
   <si>
     <t>% var.</t>
   </si>
+  <si>
+    <t>Var</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="dd/mm/yy;@"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="dd/mm/yy;@"/>
+    <numFmt numFmtId="168" formatCode="0.00000"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -487,7 +492,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" readingOrder="1"/>
@@ -522,10 +527,10 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -536,6 +541,15 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -552,10 +566,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -857,8 +867,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF507512-766D-4E3A-A3A9-04803FD38EBA}">
   <dimension ref="A1:G97"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView topLeftCell="A77" workbookViewId="0">
+      <selection sqref="A1:G97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2908,6 +2918,797 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D998ADA-C484-4BF9-8021-131938146AFF}">
+  <dimension ref="A1:B97"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="18">
+        <v>1.7299999999999999E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="18">
+        <v>-2.8799999999999999E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="18">
+        <v>-3.2099999999999997E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="18">
+        <v>1.1599999999999999E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="18">
+        <v>-2.7400000000000001E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="18">
+        <v>-1.72E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="18">
+        <v>2.9999999999999997E-4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="18">
+        <v>-1.06E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="18">
+        <v>1.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="18">
+        <v>2.2200000000000001E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="18">
+        <v>-3.7199999999999997E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="18">
+        <v>2.8500000000000001E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="18">
+        <v>-3.0099999999999998E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="18">
+        <v>-8.0000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="18">
+        <v>6.7000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="18">
+        <v>-4.4299999999999999E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="18">
+        <v>4.3400000000000001E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="18">
+        <v>-4.1000000000000003E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" s="18">
+        <v>2.8299999999999999E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" s="18">
+        <v>1.0500000000000001E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" s="18">
+        <v>-3.8E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23" s="18">
+        <v>-8.0000000000000004E-4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B24" s="18">
+        <v>-1.38E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" s="18">
+        <v>-9.5999999999999992E-3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" s="18">
+        <v>-2.0400000000000001E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27" s="18">
+        <v>1.2800000000000001E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B28" s="18">
+        <v>3.5999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B29" s="18">
+        <v>-1.46E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B30" s="18">
+        <v>-4.7500000000000001E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B31" s="18">
+        <v>-4.2000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B32" s="18">
+        <v>1.01E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B33" s="18">
+        <v>-1.7600000000000001E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B34" s="18">
+        <v>-3.1199999999999999E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B35" s="18">
+        <v>3.7100000000000001E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B36" s="18">
+        <v>-8.2100000000000006E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B37" s="18">
+        <v>1.84E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B38" s="18">
+        <v>0.2092</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B39" s="18">
+        <v>4.1200000000000001E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B40" s="18">
+        <v>-4.7000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B41" s="18">
+        <v>-3.2599999999999997E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B42" s="18">
+        <v>1.7399999999999999E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B43" s="18">
+        <v>-2.53E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B44" s="18">
+        <v>-1.6500000000000001E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B45" s="18">
+        <v>4.87E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B46" s="18">
+        <v>-4.7000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B47" s="18">
+        <v>-2.0199999999999999E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B48" s="18">
+        <v>3.5499999999999997E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B49" s="18">
+        <v>-2.4799999999999999E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B50" s="18">
+        <v>7.4999999999999997E-3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B51" s="18">
+        <v>8.9999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B52" s="18">
+        <v>-2.7199999999999998E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B53" s="18">
+        <v>-3.7100000000000001E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B54" s="18">
+        <v>3.3E-3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B55" s="18">
+        <v>8.6699999999999999E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B56" s="18">
+        <v>-1.95E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B57" s="18">
+        <v>2.3400000000000001E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B58" s="18">
+        <v>-6.3600000000000004E-2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B59" s="18">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B60" s="18">
+        <v>6.3899999999999998E-2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B61" s="18">
+        <v>3.1E-2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B62" s="18">
+        <v>-3.61E-2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B63" s="18">
+        <v>1.29E-2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B64" s="18">
+        <v>-5.3800000000000001E-2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B65" s="18">
+        <v>5.4699999999999999E-2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B66" s="18">
+        <v>-2.7099999999999999E-2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B67" s="18">
+        <v>4.9200000000000001E-2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B68" s="18">
+        <v>2.06E-2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B69" s="18">
+        <v>5.1000000000000004E-3</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B70" s="18">
+        <v>-1.83E-2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B71" s="18">
+        <v>-2.6700000000000002E-2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B72" s="18">
+        <v>-1.01E-2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B73" s="18">
+        <v>4.7999999999999996E-3</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B74" s="18">
+        <v>-6.8699999999999997E-2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B75" s="18">
+        <v>-3.5099999999999999E-2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B76" s="18">
+        <v>5.5999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B77" s="18">
+        <v>7.1999999999999998E-3</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B78" s="18">
+        <v>9.06E-2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B79" s="18">
+        <v>-2.6599999999999999E-2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B80" s="18">
+        <v>3.1699999999999999E-2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B81" s="18">
+        <v>1.8E-3</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B82" s="18">
+        <v>2.6200000000000001E-2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B83" s="18">
+        <v>-1.0699999999999999E-2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B84" s="18">
+        <v>7.5499999999999998E-2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B85" s="18">
+        <v>-6.3E-3</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B86" s="18">
+        <v>-4.6699999999999998E-2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B87" s="18">
+        <v>1.4E-3</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B88" s="18">
+        <v>5.4199999999999998E-2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B89" s="18">
+        <v>3.61E-2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B90" s="18">
+        <v>4.7999999999999996E-3</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A91" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B91" s="18">
+        <v>-2.5100000000000001E-2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A92" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B92" s="18">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A93" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B93" s="18">
+        <v>3.9899999999999998E-2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A94" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B94" s="18">
+        <v>2.35E-2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A95" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B95" s="18">
+        <v>2.3599999999999999E-2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A96" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B96" s="18">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A97" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="B97" s="19">
+        <v>5.4999999999999997E-3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A132ADD-2490-476E-B423-E5E9E5E45950}">
   <dimension ref="A1:G97"/>
   <sheetViews>
@@ -4962,7 +5763,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0256DCCC-506B-4B18-B6AC-73563D0B022D}">
   <dimension ref="A1:G97"/>
   <sheetViews>
@@ -7017,7 +7818,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5FAB4C1-5D6C-45C8-B5D7-4C74462EC432}">
   <dimension ref="A1:G97"/>
   <sheetViews>
@@ -9072,7 +9873,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83B5B247-D56F-4192-8FF8-191664A28AE4}">
   <dimension ref="A1:G97"/>
   <sheetViews>
@@ -11126,11 +11927,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC9A13DB-EC04-4ECB-8A8B-8AE2661CE408}">
   <dimension ref="A1:G97"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
@@ -13181,21 +13982,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101002DFB665C782B8F4999E2355E368622C3" ma:contentTypeVersion="2" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="fbd0c3dac044600d88226ef778ae3ae7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="5a8b2ae0-cda4-4ba8-a119-72d67b57bdd5" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="96a26c190d22260b644de9aad9440278" ns3:_="">
     <xsd:import namespace="5a8b2ae0-cda4-4ba8-a119-72d67b57bdd5"/>
@@ -13327,31 +14113,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{22AFA62E-C46F-49D8-A935-D8AC279737F1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="5a8b2ae0-cda4-4ba8-a119-72d67b57bdd5"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F95D3223-9BC4-4019-8838-771ED539B729}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{020AB7EF-56C5-4F10-BAAA-73B5ABB555A5}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -13367,4 +14144,28 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F95D3223-9BC4-4019-8838-771ED539B729}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{22AFA62E-C46F-49D8-A935-D8AC279737F1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="5a8b2ae0-cda4-4ba8-a119-72d67b57bdd5"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>